--- a/Hardware/Docs/Parts_list.xlsx
+++ b/Hardware/Docs/Parts_list.xlsx
@@ -11,245 +11,333 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
-  <si>
-    <t xml:space="preserve">Part       Value                Package              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT                              1X06                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1         22p                  C0805                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2         22p                  C0805                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3         0.1uF                0805-NO@1            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4         22uF                 0805                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5         0.1uF                0805                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6         10uF                 1206                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7         10uF                 0805-NO@1              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8         10uF                 0805-NO@1              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9         4.7uF                0805                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10        4.7uF                0805                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11        0.1uF                0805-NO@1            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12        .1uF                 0805-NO@1             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13        10uF                 0805-NO@1             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14        0.1uF                0805-NO@1          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15        10uF                 0805-NO@1              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1         1N4148               SOD-323               </t>
-  </si>
-  <si>
-    <t>D2         GREEN                CHIPLED_0805_NOOUTLINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3         1N4148               SOD-323              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5         1N4148               SOD-323              </t>
-  </si>
-  <si>
-    <t>D6         GREEN                CHIPLED_0805_NOOUTLINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D7         1N4148               SOD-323              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8                              SMADIODE              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D9         GREEN                CHIPLED_0805_NOOUTLINE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10                             SMADIODE              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC1        MEGA8-AI             TQFP32-08              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP1        LiPo                 JST-2-SMD              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISP                            2X03                   pinhead          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1         4.7uH, 1.2A          CDRH2D09              </t>
-  </si>
-  <si>
-    <t>PD0        M9960_11A            M9960                  photo-elements    (35.5 66.5)           R0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIR_SENSOR                      1X03                   pinhead           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1         MMBT2222             SOT23-R              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2         MMBT2222             SOT23-R              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3         MMBT2222             SOT23-R               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4         MMBT2222             SOT23-R               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1         10k                  R0805                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2         470                  R0805                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3         2k                   R0805           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4         1.7M                 R0805               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5         180K                 R0805                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6         4.7k                 R0805              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7         1K                   0805-NO              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8         10K                  0805-NO               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9         1K                   0805-NO                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10        1K                   0805-NO               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11        10K                  0805-NO                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12        1K                   0805-NO                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R13        1K                   0805-NO             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R14        10k                  R0805                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15        10K                  0805-NO               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R16        1K                   0805-NO                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R17        1K                   0805-NO              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R18        10K                  0805-NO               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R19        1K                   0805-NO           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R20        0                    R0805                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R21        0                    R0805                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R22        0                    R0805                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R23        4.7k                 R0805                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAY_0    RELAY_LATCHINGEE2NUH RELAY_EE2_LATCH       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAY_1    RELAY_LATCHINGEE2NUH RELAY_EE2_LATCH     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1         SKHMPSE010           SKHMPXE010             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP1        TPTP19SQ             TP19SQ             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP2        TPTP19SQ             TP19SQ                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1         MCP73831             SOT23-5                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2         TPS61200             QFN-10_PAD           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3         BME280               BME280                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4         MIC5225-3.3          SOT23-5              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U5         MIC5219 5V           SOT23-5               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X1         USB-MICROB           USB-MICROB             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2         3.5mm                TERMBLOCK_1X3-3.5MM  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X4         3.5mm                TERMBLOCK_1X3-3.5MM    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y1         16 mhz               HC49U-V            </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
+  <si>
+    <t xml:space="preserve">Part       Value                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1X06   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1         22p                                  </t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2         22p                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3         0.1uF                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0805-NO@1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4         22uF                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5         0.1uF                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6         10uF                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7         10uF                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8         10uF                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9         4.7uF                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10        4.7uF                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11        0.1uF                            </t>
+  </si>
+  <si>
+    <t>0805-NO@1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12        .1uF                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13        10uF                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14        0.1uF                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15        10uF                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1         1N4148                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOD-323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2         GREEN               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHIPLED_0805_NOOUTLINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3         1N4148                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5         1N4148                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6         GREEN                </t>
+  </si>
+  <si>
+    <t>CHIPLED_0805_NOOUTLINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7         1N4148                             </t>
+  </si>
+  <si>
+    <t>SOD-323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMADIODE              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9         GREEN                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHIPLED_0805_NOOUTLINE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC1        MEGA8-AI            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TQFP32-08              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP1        LiPo                               </t>
+  </si>
+  <si>
+    <t>JST-2-SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1         4.7uH, 1.2A               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDRH2D09         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD0        M9960_11A                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M9960    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIR_SENSOR      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1         MMBT2222              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT23-R             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2         MMBT2222                           </t>
+  </si>
+  <si>
+    <t>SOT23-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3         MMBT2222            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOT23-R               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4         MMBT2222                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1         10k                                   </t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2         470                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3         2k                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4         1.7M                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5         180K               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6         4.7k               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7         1K                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8         10K                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9         1K                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10        1K                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11        10K                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12        1K                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13        1K                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14        10k                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15        10K                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16        1K                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17        1K                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18        10K               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19        1K                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20        0                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21        0                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22        0                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23        4.7k              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAY_0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAY_1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1         SKHMPSE010                        </t>
+  </si>
+  <si>
+    <t>SKHMPXE010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP1        TPTP19SQ                          </t>
+  </si>
+  <si>
+    <t>TP19SQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP2        TPTP19SQ                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1         MCP73831                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT23-5     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2         TPS61200                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN-10_PAD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3         BME280                                </t>
+  </si>
+  <si>
+    <t>BME280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4         MIC5225-3.3                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5         MIC5219 5V                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1         USB-MICROB                        </t>
+  </si>
+  <si>
+    <t>USB-MICROB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2         3.5mm               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TERMBLOCK_1X3-3.5MM  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X4         3.5mm                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y1         16 mhz                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC49U-V </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -263,12 +351,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -290,374 +381,577 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="59.57"/>
+    <col customWidth="1" min="3" max="3" width="27.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>805.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>805.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1206.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>805.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>805.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Docs/Parts_list.xlsx
+++ b/Hardware/Docs/Parts_list.xlsx
@@ -11,245 +11,339 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
-  <si>
-    <t xml:space="preserve">Part       Value                Package              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT                              1X06                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1         22p                  C0805                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2         22p                  C0805                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3         0.1uF                0805-NO@1            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4         22uF                 0805                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5         0.1uF                0805                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6         10uF                 1206                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7         10uF                 0805-NO@1              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8         10uF                 0805-NO@1              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9         4.7uF                0805                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10        4.7uF                0805                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11        0.1uF                0805-NO@1            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12        .1uF                 0805-NO@1             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13        10uF                 0805-NO@1             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14        0.1uF                0805-NO@1          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15        10uF                 0805-NO@1              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1         1N4148               SOD-323               </t>
-  </si>
-  <si>
-    <t>D2         GREEN                CHIPLED_0805_NOOUTLINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3         1N4148               SOD-323              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5         1N4148               SOD-323              </t>
-  </si>
-  <si>
-    <t>D6         GREEN                CHIPLED_0805_NOOUTLINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D7         1N4148               SOD-323              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8                              SMADIODE              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D9         GREEN                CHIPLED_0805_NOOUTLINE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10                             SMADIODE              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC1        MEGA8-AI             TQFP32-08              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP1        LiPo                 JST-2-SMD              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISP                            2X03                   pinhead          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1         4.7uH, 1.2A          CDRH2D09              </t>
-  </si>
-  <si>
-    <t>PD0        M9960_11A            M9960                  photo-elements    (35.5 66.5)           R0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIR_SENSOR                      1X03                   pinhead           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1         MMBT2222             SOT23-R              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2         MMBT2222             SOT23-R              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3         MMBT2222             SOT23-R               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4         MMBT2222             SOT23-R               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1         10k                  R0805                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2         470                  R0805                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3         2k                   R0805           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4         1.7M                 R0805               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5         180K                 R0805                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6         4.7k                 R0805              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7         1K                   0805-NO              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8         10K                  0805-NO               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9         1K                   0805-NO                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10        1K                   0805-NO               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11        10K                  0805-NO                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12        1K                   0805-NO                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R13        1K                   0805-NO             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R14        10k                  R0805                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15        10K                  0805-NO               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R16        1K                   0805-NO                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R17        1K                   0805-NO              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R18        10K                  0805-NO               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R19        1K                   0805-NO           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R20        0                    R0805                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R21        0                    R0805                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R22        0                    R0805                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R23        4.7k                 R0805                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAY_0    RELAY_LATCHINGEE2NUH RELAY_EE2_LATCH       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAY_1    RELAY_LATCHINGEE2NUH RELAY_EE2_LATCH     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1         SKHMPSE010           SKHMPXE010             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP1        TPTP19SQ             TP19SQ             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP2        TPTP19SQ             TP19SQ                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1         MCP73831             SOT23-5                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2         TPS61200             QFN-10_PAD           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3         BME280               BME280                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4         MIC5225-3.3          SOT23-5              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U5         MIC5219 5V           SOT23-5               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X1         USB-MICROB           USB-MICROB             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2         3.5mm                TERMBLOCK_1X3-3.5MM  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X4         3.5mm                TERMBLOCK_1X3-3.5MM    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y1         16 mhz               HC49U-V            </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="101">
+  <si>
+    <t xml:space="preserve">Part       Value                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package              </t>
+  </si>
+  <si>
+    <t>Price Per Unit</t>
+  </si>
+  <si>
+    <t>Link to store page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1X06   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1         22p                                  </t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2         22p                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3         0.1uF                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0805-NO@1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4         22uF                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5         0.1uF                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6         10uF                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7         10uF                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8         10uF                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9         4.7uF                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10        4.7uF                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11        0.1uF                            </t>
+  </si>
+  <si>
+    <t>0805-NO@1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12        .1uF                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13        10uF                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14        0.1uF                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15        10uF                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1         1N4148                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOD-323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2         GREEN               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHIPLED_0805_NOOUTLINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3         1N4148                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5         1N4148                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6         GREEN                </t>
+  </si>
+  <si>
+    <t>CHIPLED_0805_NOOUTLINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7         1N4148                             </t>
+  </si>
+  <si>
+    <t>SOD-323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMADIODE              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9         GREEN                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHIPLED_0805_NOOUTLINE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC1        MEGA8-AI            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TQFP32-08              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP1        LiPo                               </t>
+  </si>
+  <si>
+    <t>JST-2-SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1         4.7uH, 1.2A               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDRH2D09         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD0        M9960_11A                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M9960    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIR_SENSOR      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1         MMBT2222              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT23-R             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2         MMBT2222                           </t>
+  </si>
+  <si>
+    <t>SOT23-R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3         MMBT2222            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOT23-R               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4         MMBT2222                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1         10k                                   </t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2         470                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3         2k                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4         1.7M                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5         180K               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6         4.7k               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7         1K                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8         10K                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9         1K                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10        1K                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11        10K                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12        1K                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13        1K                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14        10k                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15        10K                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16        1K                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17        1K                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18        10K               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19        1K                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20        0                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21        0                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22        0                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23        4.7k              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAY_0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELAY_1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1         SKHMPSE010                        </t>
+  </si>
+  <si>
+    <t>SKHMPXE010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP1        TPTP19SQ                          </t>
+  </si>
+  <si>
+    <t>TP19SQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP2        TPTP19SQ                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1         MCP73831                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT23-5     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2         TPS61200                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN-10_PAD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3         BME280                                </t>
+  </si>
+  <si>
+    <t>BME280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4         MIC5225-3.3                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5         MIC5219 5V                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1         USB-MICROB                        </t>
+  </si>
+  <si>
+    <t>USB-MICROB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2         3.5mm               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TERMBLOCK_1X3-3.5MM  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X4         3.5mm                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y1         16 mhz                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC49U-V </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -263,12 +357,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -290,374 +387,585 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="59.57"/>
+    <col customWidth="1" min="3" max="3" width="27.71"/>
+    <col customWidth="1" min="4" max="4" width="16.71"/>
+    <col customWidth="1" min="5" max="5" width="20.14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>805.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>805.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1206.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>805.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>805.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>61</v>
+        <v>83</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>90</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>68</v>
+        <v>94</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>72</v>
+        <v>99</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Docs/Parts_list.xlsx
+++ b/Hardware/Docs/Parts_list.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsal_000\Documents\GitHub\Practicum\Hardware\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6075"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>Part</t>
   </si>
@@ -226,15 +234,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -244,7 +256,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -259,49 +271,315 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.29"/>
-    <col customWidth="1" min="2" max="2" width="14.57"/>
-    <col customWidth="1" min="3" max="3" width="21.86"/>
-    <col customWidth="1" min="4" max="4" width="27.71"/>
-    <col customWidth="1" min="5" max="5" width="16.71"/>
-    <col customWidth="1" min="6" max="6" width="19.14"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -327,26 +605,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -354,13 +632,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -368,13 +649,16 @@
         <v>13</v>
       </c>
       <c r="C5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -382,10 +666,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="1">
-        <v>805.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>805</v>
+      </c>
+      <c r="E6">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -393,390 +680,443 @@
         <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>5.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>1206.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>805</v>
+      </c>
+      <c r="E8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>805.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>805</v>
+      </c>
+      <c r="E9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1">
-        <v>470.0</v>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
+      <c r="B11" s="1">
+        <v>470</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
-        <v>8.0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.0</v>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="1">
-        <v>3.0</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>805.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>3.81</v>
       </c>
-      <c r="F20">
-        <f> E20 * C20</f>
+      <c r="F21">
+        <f>E21 * C21</f>
         <v>3.81</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="D22" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="E25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="E32">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Hardware/Docs/Parts_list.xlsx
+++ b/Hardware/Docs/Parts_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -566,20 +566,20 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -613,8 +613,11 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -624,7 +627,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -641,7 +644,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -658,13 +661,16 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
       <c r="D6" s="1">
         <v>805</v>
       </c>
@@ -672,7 +678,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -685,8 +691,11 @@
       <c r="D7" s="1">
         <v>1206</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -703,7 +712,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -720,7 +729,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -737,7 +746,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -754,7 +763,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -771,7 +780,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -788,7 +797,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -805,7 +814,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -822,7 +831,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -839,7 +848,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -856,7 +865,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -871,7 +880,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -885,7 +894,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -897,7 +906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -918,7 +927,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -930,7 +939,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -939,7 +948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -950,7 +959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -967,7 +976,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -975,7 +984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -989,7 +998,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1001,7 +1010,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1014,8 +1023,11 @@
       <c r="D29" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -1029,7 +1041,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -1043,7 +1055,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -1060,7 +1072,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -1074,7 +1086,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -1087,8 +1099,11 @@
       <c r="D34" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
@@ -1102,7 +1117,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
